--- a/journal d'optimisation.xlsx
+++ b/journal d'optimisation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilien\Documents\Unity Projects\TP3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetUnity\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A8CC17-1393-4846-9EB2-91A865431516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E909B5C-0ACF-4CC7-9F97-293EF26DF780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03DD922E-2AF7-4D63-82EE-66299A114630}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{03DD922E-2AF7-4D63-82EE-66299A114630}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>phase 0</t>
   </si>
   <si>
-    <t>phase 1</t>
-  </si>
-  <si>
     <t>nb fps</t>
   </si>
   <si>
-    <t>gais par rapport a la phase n-1</t>
-  </si>
-  <si>
     <t>gain par rapport a la phase 0</t>
-  </si>
-  <si>
-    <t>explication gain de complexité</t>
-  </si>
-  <si>
-    <t>exprimez le gain de compelxité en
-fonction de variables telles que la 
-résolution ou la dimension ou le voisinage</t>
-  </si>
-  <si>
-    <t>Relever les consiquenfces visuelle de ces 
-approixaltion ou optimisation</t>
-  </si>
-  <si>
-    <t>phase 2</t>
-  </si>
-  <si>
-    <t>phase 3</t>
-  </si>
-  <si>
-    <t>phase 4</t>
-  </si>
-  <si>
-    <t>phase 5</t>
-  </si>
-  <si>
-    <t>phase 6</t>
   </si>
   <si>
     <t>Ce code permet de créer un terrain dynamique en Unity, 
@@ -88,9 +55,232 @@
 enrichissent l'expérience utilisateur.</t>
   </si>
   <si>
-    <t>L'ajout de la touche F pour changer de méthode de distance 
-améliore l’interaction sans impacter la performance,
-tout en offrant plusieurs options de distance pour des besoins variés.</t>
+    <t>gain par rapport a la phase n-1</t>
+  </si>
+  <si>
+    <t>Relever les conséquences visuelles de ces 
+approixaltions ou optimisations</t>
+  </si>
+  <si>
+    <t>Exprimez le gain de compelxité en
+fonction de variables telles que la 
+résolution ou la dimension ou le voisinage</t>
+  </si>
+  <si>
+    <t>Explication gain de complexité</t>
+  </si>
+  <si>
+    <t>phase 1 (Euclidienne)</t>
+  </si>
+  <si>
+    <t>phase 1 (Manhattan)</t>
+  </si>
+  <si>
+    <t>phase 1 (Chebyshev)</t>
+  </si>
+  <si>
+    <t>Permet de changer de méthode de distance (Manhattan), facilitant l’implémentation de différents effets visuels avec une complexité relativement stable par rapport à Euclidienne.</t>
+  </si>
+  <si>
+    <t>La méthode Chebyshev, bien qu'offrant une approche différente pour la distance, est plus coûteuse en performances, ce qui impacte les FPS de manière notable.</t>
+  </si>
+  <si>
+    <t>L'ajout de la touche F pour changer de méthode de distance (Euclidienne) améliore l’interaction, tout en offrant plusieurs options de distance pour des besoins variés.</t>
+  </si>
+  <si>
+    <t>En utilisant différentes méthodes de distance, la complexité de calcul reste stable mais est impactée par le choix de la distance utilisée (Euclidienne étant moins complexe que Chebyshev).</t>
+  </si>
+  <si>
+    <t>Même impact que la phase Euclidienne, avec une légère amélioration en performance par rapport à Chebyshev dans les grands voisinages.</t>
+  </si>
+  <si>
+    <t>Le choix de Chebyshev introduit une complexité de calcul plus élevée dans les grands voisinages, entraînant une diminution des performances.</t>
+  </si>
+  <si>
+    <t>En mode Euclidienne, les effets de déformation sont doux et réalistes, avec un impact visuel peu perceptible pour l’utilisateur.</t>
+  </si>
+  <si>
+    <t>En mode Manhattan, les déformations ont des angles plus marqués, créant des transitions de hauteur en "marches", ce qui peut être intéressant pour certains styles de terrain.</t>
+  </si>
+  <si>
+    <t>En mode Chebyshev, la déformation est plus abrupte et moins naturelle, ce qui peut créer un effet visuel plus artificiel, mais potentiellement intéressant pour des environnements stylisés.</t>
+  </si>
+  <si>
+    <t>phase 3 (Euclidienne)</t>
+  </si>
+  <si>
+    <t>phase 3 (Manhattan)</t>
+  </si>
+  <si>
+    <t>phase 3 (Chebyshev)</t>
+  </si>
+  <si>
+    <t>phase 2 (Euclidienne)</t>
+  </si>
+  <si>
+    <t>phase 2 (Manhattan)</t>
+  </si>
+  <si>
+    <t>phase 2 (Chebyshev)</t>
+  </si>
+  <si>
+    <t>phase 4 (Euclidienne)</t>
+  </si>
+  <si>
+    <t>phase 4 (Manhattan)</t>
+  </si>
+  <si>
+    <t>phase 4 (Chebyshev)</t>
+  </si>
+  <si>
+    <t>phase 5 (Euclidienne)</t>
+  </si>
+  <si>
+    <t>phase 5 (Chebyshev)</t>
+  </si>
+  <si>
+    <t>phase 6 (Euclidienne)</t>
+  </si>
+  <si>
+    <t>phase 6 (Manhattan)</t>
+  </si>
+  <si>
+    <t>phase 5 (Manhattan)</t>
+  </si>
+  <si>
+    <t>phase 6 (Chebyshev)</t>
+  </si>
+  <si>
+    <t>Optimisation en sélectionnant le premier vertex du triangle touché par le rayon.</t>
+  </si>
+  <si>
+    <t>Simplifie les calculs pour les terrains à faible résolution, réduisant le nombre d'opérations nécessaires.</t>
+  </si>
+  <si>
+    <t>Apparition de certains artefacts visuels, en particulier dans les zones de déformation intense.</t>
+  </si>
+  <si>
+    <t>Utilise le premier vertex du triangle avec la distance de Manhattan, réduisant encore la complexité des calculs.</t>
+  </si>
+  <si>
+    <t>Appropriée pour des terrains de basse résolution où la distance exacte n'a pas besoin d'être calculée pour chaque vertex.</t>
+  </si>
+  <si>
+    <t>Les transitions peuvent apparaître angulaires ou « en escalier », moins réalistes pour les paysages naturels.</t>
+  </si>
+  <si>
+    <t>Optimisation similaire, mais avec la distance de Chebyshev, simplifiant les calculs de voisinage.</t>
+  </si>
+  <si>
+    <t>Meilleure performance dans les environnements avec une faible résolution spatiale.</t>
+  </si>
+  <si>
+    <t>Effets visuels « carrés », ce qui peut ne pas convenir aux environnements naturels, mais adéquat pour des représentations artificielles.</t>
+  </si>
+  <si>
+    <t>Simplification de la recherche des vertices voisins.</t>
+  </si>
+  <si>
+    <t>Gain notable pour les terrains à haute résolution car les calculs de voisinage sont réduits.</t>
+  </si>
+  <si>
+    <t>Légères pertes de précision, mais peu perceptibles pour l’utilisateur final.</t>
+  </si>
+  <si>
+    <t>Optimisation de la recherche des voisins, avec Manhattan.</t>
+  </si>
+  <si>
+    <t>Utile pour les terrains où des approximations sont acceptables, comme des terrains géométriques.</t>
+  </si>
+  <si>
+    <t>Peut produire des artefacts dans les formes arrondies ou naturelles du terrain.</t>
+  </si>
+  <si>
+    <t>Simplification des calculs de voisinage avec Chebyshev, qui a une faible complexité.</t>
+  </si>
+  <si>
+    <t>Efficace dans des environnements de faible résolution ou stylisés.</t>
+  </si>
+  <si>
+    <t>Apparence artificielle et effets de « grille » ou « pixélisation » dans certaines zones.</t>
+  </si>
+  <si>
+    <t>Optimisation des recalculs de normales, seulement pour les vertices modifiés.</t>
+  </si>
+  <si>
+    <t>Gain de complexité important lorsque seules quelques parties du terrain sont modifiées.</t>
+  </si>
+  <si>
+    <t>La qualité visuelle est améliorée sans sacrifier les performances, mais des artefacts peuvent apparaître si la déformation est importante.</t>
+  </si>
+  <si>
+    <t>Réduction des recalculs de normales pour la distance Manhattan.</t>
+  </si>
+  <si>
+    <t>Bénéfique dans les environnements où la déformation est modérée et ne nécessite pas de recalcul complet.</t>
+  </si>
+  <si>
+    <t>Impact minimal sur la qualité visuelle, bien adapté aux terrains artificiels ou de faible résolution.</t>
+  </si>
+  <si>
+    <t>Utilisation de la méthode de Chebyshev pour minimiser les recalculs de normales.</t>
+  </si>
+  <si>
+    <t>Efficace dans les environnements nécessitant peu de détails.</t>
+  </si>
+  <si>
+    <t>Peut générer une perte de précision dans les zones de haute déformation.</t>
+  </si>
+  <si>
+    <t>Mise à jour du MeshCollider uniquement lorsque nécessaire (quand la souris est relâchée).</t>
+  </si>
+  <si>
+    <t>Gain significatif dans les environnements interactifs où la collision ne doit être mise à jour que lors de grandes modifications.</t>
+  </si>
+  <si>
+    <t>La réactivité peut sembler légèrement réduite dans les environnements à haute fréquence de collision.</t>
+  </si>
+  <si>
+    <t>Idem que la phase Euclidienne, mais avec Manhattan.</t>
+  </si>
+  <si>
+    <t>Amélioration importante pour des terrains de haute résolution, avec une légère perte de précision.</t>
+  </si>
+  <si>
+    <t>La transition de collision peut ne pas être fluide pour certains éléments dynamiques.</t>
+  </si>
+  <si>
+    <t>Optimisation des mises à jour de collision avec Chebyshev.</t>
+  </si>
+  <si>
+    <t>Peu d'impact sur les terrains à faible résolution ou dans les environnements non interactifs.</t>
+  </si>
+  <si>
+    <t>Peut générer des artefacts visuels dans les environnements dynamiques où la collision doit être plus précise.</t>
+  </si>
+  <si>
+    <t>Calcul du voisinage dans l'espace grille, réduisant les besoins de calcul dans l’espace monde.</t>
+  </si>
+  <si>
+    <t>Bénéfique dans les environnements dynamiques nécessitant une optimisation importante pour les calculs de distance.</t>
+  </si>
+  <si>
+    <t>Peut introduire des imprécisions dans les environnements naturels, perceptibles lors des mouvements de la caméra.</t>
+  </si>
+  <si>
+    <t>Optimisation avec l’espace grille en utilisant Manhattan, réduisant les calculs en restant performant.</t>
+  </si>
+  <si>
+    <t>Gain modéré pour les environnements géométriques.</t>
+  </si>
+  <si>
+    <t>Peut produire des artefacts « en escalier » dans les zones déformées rapidement.</t>
+  </si>
+  <si>
+    <t>Utilisation de Chebyshev pour les calculs de voisinage en espace grille, minimisant encore les calculs.</t>
+  </si>
+  <si>
+    <t>Effets visuels plus angulaires ou artificiels, rendant les terrains plus « carrés ».</t>
   </si>
 </sst>
 </file>
@@ -132,10 +322,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,110 +664,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9013B84-137B-4487-8705-AFA2166237AC}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>28.5</v>
+      </c>
+      <c r="D2">
+        <v>28.5</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>3.5</v>
+      </c>
+      <c r="M2">
+        <v>3.5</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>150</v>
+      </c>
+      <c r="P2">
+        <v>158</v>
+      </c>
+      <c r="Q2">
+        <v>63</v>
+      </c>
+      <c r="R2">
+        <v>150</v>
+      </c>
+      <c r="S2">
+        <v>158</v>
+      </c>
+      <c r="T2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>C2-B2</f>
+        <v>-4.5</v>
+      </c>
+      <c r="D3">
+        <f>D2-B2</f>
+        <v>-4.5</v>
+      </c>
+      <c r="E3">
+        <f>E2-B2</f>
+        <v>-11</v>
+      </c>
+      <c r="F3">
+        <f>F2-C2</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H3" si="0">G2-D2</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I3">
+        <f t="shared" ref="I3" si="1">I2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3" si="2">J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3" si="3">K2-H2</f>
+        <v>-8</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3" si="4">L2-I2</f>
+        <v>-27.5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3" si="5">M2-J2</f>
+        <v>-27.5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="6">N2-K2</f>
+        <v>-20</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3" si="7">O2-L2</f>
+        <v>146.5</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3" si="8">P2-M2</f>
+        <v>154.5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3" si="9">Q2-N2</f>
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3" si="10">R2-O2</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3" si="11">S2-P2</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3" si="12">T2-Q2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>C2-B2</f>
+        <v>-4.5</v>
+      </c>
+      <c r="D4">
+        <f>D2-B2</f>
+        <v>-4.5</v>
+      </c>
+      <c r="E4">
+        <f>E2-B2</f>
+        <v>-11</v>
+      </c>
+      <c r="F4">
+        <f>F2-B2</f>
+        <v>-2</v>
+      </c>
+      <c r="G4">
+        <f>G2-B2</f>
+        <v>-2</v>
+      </c>
+      <c r="H4">
+        <f>H2-B2</f>
+        <v>-2</v>
+      </c>
+      <c r="I4">
+        <f>I2-B2</f>
+        <v>-2</v>
+      </c>
+      <c r="J4">
+        <f>J2-B2</f>
+        <v>-2</v>
+      </c>
+      <c r="K4">
+        <f>K2-B2</f>
+        <v>-10</v>
+      </c>
+      <c r="L4">
+        <f>L2-B2</f>
+        <v>-29.5</v>
+      </c>
+      <c r="M4">
+        <f>M2-B2</f>
+        <v>-29.5</v>
+      </c>
+      <c r="N4">
+        <f>N2-B2</f>
+        <v>-30</v>
+      </c>
+      <c r="O4">
+        <f>O2-B2</f>
+        <v>117</v>
+      </c>
+      <c r="P4">
+        <f>P2-B2</f>
+        <v>125</v>
+      </c>
+      <c r="Q4">
+        <f>Q2-B2</f>
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <f>R2-B2</f>
+        <v>117</v>
+      </c>
+      <c r="S4">
+        <f>S2-B2</f>
+        <v>125</v>
+      </c>
+      <c r="T4">
+        <f>T2-B2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>31.5</v>
-      </c>
-      <c r="D2">
-        <v>31.5</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
+    <row r="6" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>